--- a/Sistema_gestion_actividades/staticfiles/media/task_finished.xlsx
+++ b/Sistema_gestion_actividades/staticfiles/media/task_finished.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,10 +29,6 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,17 +51,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -510,89 +499,89 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Tarea para departamento de sistema</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Crear una app de busqueda</t>
         </is>
       </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>gabriel1407</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Sistema y tecnologia</t>
         </is>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>45145</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>45146</v>
+      <c r="J2" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45160</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Tarea para departamento de sistema</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Crear una app de busqueda</t>
         </is>
       </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>user_admin</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Sistema y tecnologia</t>
         </is>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>45145</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>45146</v>
+      <c r="J3" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45160</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema_gestion_actividades/staticfiles/media/task_finished.xlsx
+++ b/Sistema_gestion_actividades/staticfiles/media/task_finished.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Crear una app de busqueda</t>
+          <t>Se necesita configurar el ambiente de desarrollo para digitel</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -531,19 +531,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sistema y tecnologia</t>
+          <t>Departamento de prueba</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45159</v>
+        <v>45145</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45160</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Crear una app de busqueda</t>
+          <t>Se necesita configurar el ambiente de desarrollo para digitel</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -574,14 +574,229 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sistema y tecnologia</t>
+          <t>Departamento de prueba</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45159</v>
+        <v>45145</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45160</v>
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tarea para departamento de sistema</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Se necesita configurar el ambiente de desarrollo para digitel</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Departamento de prueba</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tarea para departamento de sistema</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Se necesita configurar el ambiente de desarrollo para digitel</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Departamento de prueba</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tarea para departamento de sistema</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Se necesita configurar el ambiente de desarrollo para digitel</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Departamento de prueba</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tarea para departamento de sistema</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Se necesita configurar el ambiente de desarrollo para digitel</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Departamento de prueba</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tarea para departamento de sistema</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Se necesita subir al repositorio los cambios del Front-end</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>gabriel1407, user_admin</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Departamento de prueba</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45140</v>
       </c>
     </row>
   </sheetData>
